--- a/HT-6/BAC-23-Ficha técnica de una acción estratégica.xlsx
+++ b/HT-6/BAC-23-Ficha técnica de una acción estratégica.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvill\Dropbox\uniandes\MATI\Notas de clase\Artefactos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C115C09-D746-423B-B6EF-F47C8D9930C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B455EB5-D753-1642-9586-2893F61346D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="0" windowWidth="21375" windowHeight="14910" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="BAC-23-1" sheetId="1" r:id="rId1"/>
@@ -174,23 +174,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -200,6 +195,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,159 +515,159 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDEE2F-9DA5-4F4F-A9BF-B9BEA22ACD0E}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="170" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.875" customWidth="1"/>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
     <col min="3" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -687,155 +685,155 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.875" customWidth="1"/>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
     <col min="3" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -853,155 +851,155 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.875" customWidth="1"/>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
     <col min="3" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1019,155 +1017,155 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.875" customWidth="1"/>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
     <col min="3" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1185,155 +1183,155 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.875" customWidth="1"/>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
     <col min="3" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
     </row>
-    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/HT-6/BAC-23-Ficha técnica de una acción estratégica.xlsx
+++ b/HT-6/BAC-23-Ficha técnica de una acción estratégica.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B455EB5-D753-1642-9586-2893F61346D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F65068C-E188-3E46-93BD-4FD95982125D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="31360" yWindow="-3740" windowWidth="28800" windowHeight="17500" firstSheet="1" activeTab="13" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="BAC-23-1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,15 @@
     <sheet name="BAC-23-3" sheetId="7" r:id="rId3"/>
     <sheet name="BAC-23-4" sheetId="8" r:id="rId4"/>
     <sheet name="BAC-23-5" sheetId="9" r:id="rId5"/>
+    <sheet name="BAC-23-6" sheetId="11" r:id="rId6"/>
+    <sheet name="BAC-23-7" sheetId="12" r:id="rId7"/>
+    <sheet name="BAC-23-8" sheetId="13" r:id="rId8"/>
+    <sheet name="BAC-23-9" sheetId="14" r:id="rId9"/>
+    <sheet name="BAC-23-10" sheetId="15" r:id="rId10"/>
+    <sheet name="BAC-23-11" sheetId="16" r:id="rId11"/>
+    <sheet name="BAC-23-12" sheetId="17" r:id="rId12"/>
+    <sheet name="BAC-23-13" sheetId="18" r:id="rId13"/>
+    <sheet name="BAC-23-14" sheetId="19" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -515,8 +524,838 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDEE2F-9DA5-4F4F-A9BF-B9BEA22ACD0E}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="170" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="170" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="6" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6F8770-7D2A-FE43-B9B1-7515A53F4969}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="6" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF4E0936-63B9-234E-BBE9-144C07C71A14}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="6" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5D5DA9-6D7A-B042-A069-61E3E8131A55}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="6" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22E0380-33E0-F14F-B782-F6367023B4CC}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="6" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C5CF9B-D9BE-5542-B3EA-979302F26D14}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1339,4 +2178,668 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EDEF22-2DAF-F74D-BBF5-044C4F22FF21}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="6" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62DC724D-1174-B04F-9A49-0FEE030861B3}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="6" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4ED998C-70E0-5643-81EC-F018CCEF7BD7}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="6" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CF326E3-3636-F74B-AF46-2CCBBAFD2D5A}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="6" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/HT-6/BAC-23-Ficha técnica de una acción estratégica.xlsx
+++ b/HT-6/BAC-23-Ficha técnica de una acción estratégica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F65068C-E188-3E46-93BD-4FD95982125D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AF5FA0-C327-6F4F-AD2A-EC4E286CC4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31360" yWindow="-3740" windowWidth="28800" windowHeight="17500" firstSheet="1" activeTab="13" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>

--- a/HT-6/BAC-23-Ficha técnica de una acción estratégica.xlsx
+++ b/HT-6/BAC-23-Ficha técnica de una acción estratégica.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AF5FA0-C327-6F4F-AD2A-EC4E286CC4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D4BD24-F850-F640-A004-28DB8A8DC6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31360" yWindow="-3740" windowWidth="28800" windowHeight="17500" firstSheet="1" activeTab="13" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="31360" yWindow="-3740" windowWidth="28800" windowHeight="17500" firstSheet="3" activeTab="15" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="BAC-23-1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
     <sheet name="BAC-23-12" sheetId="17" r:id="rId12"/>
     <sheet name="BAC-23-13" sheetId="18" r:id="rId13"/>
     <sheet name="BAC-23-14" sheetId="19" r:id="rId14"/>
+    <sheet name="BAC-23-15" sheetId="20" r:id="rId15"/>
+    <sheet name="BAC-23-16" sheetId="21" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -1354,8 +1356,340 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C5CF9B-D9BE-5542-B3EA-979302F26D14}">
   <dimension ref="A1:F17"/>
   <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="6" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A91A29-6689-CF45-B59B-68BD1CA8F8FD}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="6" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:F8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{844B9EB2-E0A5-2C4A-A96C-DBF612CDE043}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>

--- a/HT-6/BAC-23-Ficha técnica de una acción estratégica.xlsx
+++ b/HT-6/BAC-23-Ficha técnica de una acción estratégica.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D4BD24-F850-F640-A004-28DB8A8DC6CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D080A719-C4C4-4B45-BAB5-EDB4652FADD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31360" yWindow="-3740" windowWidth="28800" windowHeight="17500" firstSheet="3" activeTab="15" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="BAC-23-1" sheetId="1" r:id="rId1"/>
@@ -526,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDEE2F-9DA5-4F4F-A9BF-B9BEA22ACD0E}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="170" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="170" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1688,7 +1688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{844B9EB2-E0A5-2C4A-A96C-DBF612CDE043}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>

--- a/HT-6/BAC-23-Ficha técnica de una acción estratégica.xlsx
+++ b/HT-6/BAC-23-Ficha técnica de una acción estratégica.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D080A719-C4C4-4B45-BAB5-EDB4652FADD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046B7617-05C5-0545-8A95-EF7FB35DD761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -92,12 +92,48 @@
   <si>
     <t>Modelo estratégico</t>
   </si>
+  <si>
+    <t>AE-1</t>
+  </si>
+  <si>
+    <t>Instalación de nuevo punto de venta</t>
+  </si>
+  <si>
+    <t>OP-01, OP-02</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>Organización de días de entrega para logística de entrada</t>
+  </si>
+  <si>
+    <t>Organización de logística de distribución a todos los puntos de venta</t>
+  </si>
+  <si>
+    <t>Inversión en estética y diseño de nuestros nuevos puntos de venta</t>
+  </si>
+  <si>
+    <t>Contratación de empleados con contratos laborales</t>
+  </si>
+  <si>
+    <t>Afiliación de empleados en cajas de compensación</t>
+  </si>
+  <si>
+    <t>Instalación de nuevos puntos de venta</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +153,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -132,7 +174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -181,11 +223,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -210,8 +266,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moneda [0]" xfId="1" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -526,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDEE2F-9DA5-4F4F-A9BF-B9BEA22ACD0E}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="170" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="170" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -575,13 +647,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="10">
+        <v>90000000</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
@@ -616,61 +700,72 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
+      <c r="B10" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.15">
       <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
+      <c r="B11" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.15">
       <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
+      <c r="B12" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
+      <c r="B14" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.15">
       <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
+      <c r="B15" s="14" t="s">
+        <v>24</v>
+      </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+    <row r="16" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>

--- a/HT-6/BAC-23-Ficha técnica de una acción estratégica.xlsx
+++ b/HT-6/BAC-23-Ficha técnica de una acción estratégica.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Documents/Universidad/2022-20/arquiemp/repo/arquiemp/HT-6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046B7617-05C5-0545-8A95-EF7FB35DD761}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B13F6CE-7128-FF41-9D54-41EA899BF103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{6D2ADF59-F33A-44E3-88FB-8431094B32CC}"/>
   </bookViews>
   <sheets>
     <sheet name="BAC-23-1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -125,6 +125,24 @@
   <si>
     <t>Instalación de nuevos puntos de venta</t>
   </si>
+  <si>
+    <t>Logística</t>
+  </si>
+  <si>
+    <t>Gerente</t>
+  </si>
+  <si>
+    <t>Recursos Humanos</t>
+  </si>
+  <si>
+    <t>mes 1</t>
+  </si>
+  <si>
+    <t>mes 2</t>
+  </si>
+  <si>
+    <t>mes 3</t>
+  </si>
 </sst>
 </file>
 
@@ -133,7 +151,7 @@
   <numFmts count="1">
     <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +177,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -174,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -223,25 +246,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -263,16 +273,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -280,6 +281,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -596,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABDEE2F-9DA5-4F4F-A9BF-B9BEA22ACD0E}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="170" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" zoomScale="141" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -660,7 +664,7 @@
       <c r="D6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>90000000</v>
       </c>
       <c r="F6" s="8" t="s">
@@ -671,14 +675,14 @@
       <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
@@ -701,84 +705,118 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
+      <c r="A10" s="7">
+        <v>1</v>
+      </c>
       <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
+      <c r="A11" s="7">
+        <v>2</v>
+      </c>
       <c r="B11" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
+      <c r="A12" s="7">
+        <v>3</v>
+      </c>
       <c r="B12" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
+      <c r="A13" s="7">
+        <v>4</v>
+      </c>
       <c r="B13" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="13" t="s">
+      <c r="A14" s="7">
+        <v>5</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="14" t="s">
+      <c r="A15" s="7">
+        <v>6</v>
+      </c>
+      <c r="B15" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A8:F8"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -848,14 +886,14 @@
       <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
@@ -1014,14 +1052,14 @@
       <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
@@ -1180,14 +1218,14 @@
       <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
@@ -1346,14 +1384,14 @@
       <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
@@ -1512,14 +1550,14 @@
       <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
@@ -1678,14 +1716,14 @@
       <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
@@ -1844,14 +1882,14 @@
       <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
@@ -1949,7 +1987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{423B16AA-BCEA-479D-A61A-2B38327EDBF2}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -2010,14 +2048,14 @@
       <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
@@ -2176,14 +2214,14 @@
       <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
@@ -2342,14 +2380,14 @@
       <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
@@ -2508,14 +2546,14 @@
       <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
@@ -2674,14 +2712,14 @@
       <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
@@ -2840,14 +2878,14 @@
       <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
@@ -3006,14 +3044,14 @@
       <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
@@ -3172,14 +3210,14 @@
       <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
